--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H2">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I2">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J2">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N2">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O2">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P2">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q2">
-        <v>80.04365257118936</v>
+        <v>15.01755710179511</v>
       </c>
       <c r="R2">
-        <v>720.3928731407042</v>
+        <v>135.158013916156</v>
       </c>
       <c r="S2">
-        <v>0.03465973733494273</v>
+        <v>0.02622176997317242</v>
       </c>
       <c r="T2">
-        <v>0.0449552299857657</v>
+        <v>0.03199883017912225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H3">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I3">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J3">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P3">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q3">
-        <v>743.5704786366614</v>
+        <v>190.9543452164984</v>
       </c>
       <c r="R3">
-        <v>6692.134307729953</v>
+        <v>1718.589106948486</v>
       </c>
       <c r="S3">
-        <v>0.3219737812019913</v>
+        <v>0.3334204679032818</v>
       </c>
       <c r="T3">
-        <v>0.4176143991930817</v>
+        <v>0.4068781375779039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H4">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I4">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J4">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N4">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O4">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P4">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q4">
-        <v>22.969296594176</v>
+        <v>9.113488042634222</v>
       </c>
       <c r="R4">
-        <v>206.723669347584</v>
+        <v>82.02139238370799</v>
       </c>
       <c r="S4">
-        <v>0.009945945257988939</v>
+        <v>0.01591282693232754</v>
       </c>
       <c r="T4">
-        <v>0.012900335977098</v>
+        <v>0.01941866804560743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H5">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I5">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J5">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N5">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O5">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P5">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q5">
-        <v>559.9563404076001</v>
+        <v>113.747770282938</v>
       </c>
       <c r="R5">
-        <v>3359.738042445601</v>
+        <v>682.4866216976279</v>
       </c>
       <c r="S5">
-        <v>0.2424669421513734</v>
+        <v>0.1986120543509654</v>
       </c>
       <c r="T5">
-        <v>0.2096603145608413</v>
+        <v>0.1615795680511607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H6">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I6">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J6">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N6">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O6">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P6">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q6">
-        <v>9.163762114623999</v>
+        <v>5.270514160063778</v>
       </c>
       <c r="R6">
-        <v>82.473859031616</v>
+        <v>47.43462744057399</v>
       </c>
       <c r="S6">
-        <v>0.0039680046785757</v>
+        <v>0.009202709136296243</v>
       </c>
       <c r="T6">
-        <v>0.005146679595004486</v>
+        <v>0.01123020784414933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I7">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J7">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N7">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O7">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P7">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q7">
-        <v>6.684891179915557</v>
+        <v>4.883816405502222</v>
       </c>
       <c r="R7">
-        <v>60.16402061924001</v>
+        <v>43.95434764952</v>
       </c>
       <c r="S7">
-        <v>0.002894627680845548</v>
+        <v>0.008527506138863106</v>
       </c>
       <c r="T7">
-        <v>0.003754461606504562</v>
+        <v>0.01040624721626639</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I8">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J8">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O8">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P8">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q8">
         <v>62.0997115275689</v>
@@ -948,10 +948,10 @@
         <v>558.8974037481202</v>
       </c>
       <c r="S8">
-        <v>0.02688982350233186</v>
+        <v>0.1084307081397167</v>
       </c>
       <c r="T8">
-        <v>0.03487730412213103</v>
+        <v>0.1323196649011329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I9">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J9">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N9">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O9">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P9">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q9">
-        <v>1.918293871893333</v>
+        <v>2.963771145484445</v>
       </c>
       <c r="R9">
-        <v>17.26464484704</v>
+        <v>26.67394030936</v>
       </c>
       <c r="S9">
-        <v>0.0008306412762950867</v>
+        <v>0.005174964523406354</v>
       </c>
       <c r="T9">
-        <v>0.00107737889790264</v>
+        <v>0.006315088994254805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I10">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J10">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N10">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O10">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P10">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q10">
-        <v>46.76507231850001</v>
+        <v>36.99158410596</v>
       </c>
       <c r="R10">
-        <v>280.590433911</v>
+        <v>221.94950463576</v>
       </c>
       <c r="S10">
-        <v>0.02024976460897064</v>
+        <v>0.06459005301559984</v>
       </c>
       <c r="T10">
-        <v>0.01750990044263123</v>
+        <v>0.05254682501909009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I11">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J11">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N11">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O11">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P11">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q11">
-        <v>0.7653168061066666</v>
+        <v>1.714008699675556</v>
       </c>
       <c r="R11">
-        <v>6.88785125496</v>
+        <v>15.42607829708</v>
       </c>
       <c r="S11">
-        <v>0.0003313901680596461</v>
+        <v>0.002992786479868713</v>
       </c>
       <c r="T11">
-        <v>0.0004298278742327219</v>
+        <v>0.003652143483436481</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H12">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I12">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J12">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N12">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O12">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P12">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q12">
-        <v>43.84530766879467</v>
+        <v>5.841399555991998</v>
       </c>
       <c r="R12">
-        <v>263.071846012768</v>
+        <v>35.048397335952</v>
       </c>
       <c r="S12">
-        <v>0.01898547602907813</v>
+        <v>0.01019951743418405</v>
       </c>
       <c r="T12">
-        <v>0.01641667454138463</v>
+        <v>0.008297752252406176</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H13">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I13">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J13">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O13">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P13">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q13">
-        <v>407.3037069399306</v>
+        <v>74.27577067305199</v>
       </c>
       <c r="R13">
-        <v>2443.822241639584</v>
+        <v>445.654624038312</v>
       </c>
       <c r="S13">
-        <v>0.176366757945373</v>
+        <v>0.1296910116583519</v>
       </c>
       <c r="T13">
-        <v>0.1525037170874109</v>
+        <v>0.1055092940474017</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H14">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I14">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J14">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N14">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O14">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P14">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q14">
-        <v>12.581833084288</v>
+        <v>3.544885805655999</v>
       </c>
       <c r="R14">
-        <v>75.49099850572799</v>
+        <v>21.269314833936</v>
       </c>
       <c r="S14">
-        <v>0.00544806509804972</v>
+        <v>0.006189633876335619</v>
       </c>
       <c r="T14">
-        <v>0.004710922784236443</v>
+        <v>0.005035537099706151</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H15">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I15">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J15">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N15">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O15">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P15">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q15">
-        <v>306.7258581738</v>
+        <v>44.24462449664399</v>
       </c>
       <c r="R15">
-        <v>1226.9034326952</v>
+        <v>176.978497986576</v>
       </c>
       <c r="S15">
-        <v>0.1328154992512836</v>
+        <v>0.07725440018215132</v>
       </c>
       <c r="T15">
-        <v>0.0765633976175738</v>
+        <v>0.0418998825030207</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H16">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I16">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J16">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N16">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O16">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P16">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q16">
-        <v>5.019610630111998</v>
+        <v>2.050079041867999</v>
       </c>
       <c r="R16">
-        <v>30.11766378067199</v>
+        <v>12.300474251208</v>
       </c>
       <c r="S16">
-        <v>0.002173543814840722</v>
+        <v>0.003579590255478943</v>
       </c>
       <c r="T16">
-        <v>0.001879455714201143</v>
+        <v>0.002912152785340847</v>
       </c>
     </row>
   </sheetData>
